--- a/data/trans_dic/P15_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con nadie de su entorno con COVID-19</t>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>87,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>87,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>76,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>84,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>55,78%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>80,28%</t>
+          <t>81,12%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>84,57%</t>
+          <t>85,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>56,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>32,15%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,43; 92,18</t>
+          <t>70,8; 96,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,91; 90,88</t>
+          <t>70,89; 96,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,56; 57,6</t>
+          <t>32,05; 70,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 40,73</t>
+          <t>9,4; 42,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,45; 84,97</t>
+          <t>63,55; 88,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,96; 92,93</t>
+          <t>70,43; 92,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,72; 67,26</t>
+          <t>45,88; 74,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,57; 48,77</t>
+          <t>29,06; 57,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,1; 85,81</t>
+          <t>70,72; 89,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>77,58; 89,55</t>
+          <t>76,87; 92,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,84; 59,56</t>
+          <t>44,95; 66,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,67; 40,81</t>
+          <t>22,72; 43,7</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,6%</t>
+          <t>66,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,05%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,21%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>40,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,89; 82,28</t>
+          <t>47,82; 82,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>75,5; 93,14</t>
+          <t>72,99; 94,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,58; 59,47</t>
+          <t>21,64; 62,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,96; 60,81</t>
+          <t>17,94; 72,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,32; 91,03</t>
+          <t>74,54; 91,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,96; 95,89</t>
+          <t>86,71; 98,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,95; 69,15</t>
+          <t>39,12; 65,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,61; 52,21</t>
+          <t>25,95; 52,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,28; 84,83</t>
+          <t>64,7; 83,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,4; 92,95</t>
+          <t>83,49; 94,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42,13; 61,07</t>
+          <t>33,51; 59,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 53,73</t>
+          <t>26,55; 58,08</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>81,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>69,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>71,49%</t>
+          <t>71,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>49,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>30,58%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,63; 79,99</t>
+          <t>64,03; 85,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>71,52; 89,98</t>
+          <t>68,65; 89,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,21; 70,41</t>
+          <t>34,13; 60,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,97; 54,45</t>
+          <t>17,23; 41,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,56; 77,95</t>
+          <t>59,59; 77,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,12; 84,77</t>
+          <t>65,42; 83,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,92; 58,77</t>
+          <t>41,45; 61,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,42; 36,21</t>
+          <t>24,34; 42,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,16; 76,72</t>
+          <t>63,57; 78,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,9; 85,52</t>
+          <t>70,43; 83,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,6; 61,59</t>
+          <t>41,91; 57,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,41; 44,39</t>
+          <t>23,72; 39,62</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>49,5%</t>
+          <t>48,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,63%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>73,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,81%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>71,65%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,76%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>35,12%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,05; 75,46</t>
+          <t>56,35; 75,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,14; 85,06</t>
+          <t>68,28; 85,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,92; 57,93</t>
+          <t>37,79; 59,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,47; 42,83</t>
+          <t>23,09; 43,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,49; 80,91</t>
+          <t>63,3; 81,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,71; 89,47</t>
+          <t>74,98; 89,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,83; 59,64</t>
+          <t>40,16; 59,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,74; 44,33</t>
+          <t>28,47; 47,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,32; 77,43</t>
+          <t>62,99; 76,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77,78; 86,65</t>
+          <t>74,56; 86,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,55; 56,05</t>
+          <t>41,75; 56,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,75; 41,13</t>
+          <t>28,27; 42,19</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,64%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>60,8%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>81,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>33,8%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>78,07%</t>
+          <t>75,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57,44%</t>
+          <t>54,8%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>33,12%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,7; 86,3</t>
+          <t>66,22; 86,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,75; 91,25</t>
+          <t>76,31; 92,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,98; 70,54</t>
+          <t>49,05; 74,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,45; 49,57</t>
+          <t>21,13; 44,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>67,82; 84,0</t>
+          <t>61,0; 85,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,51; 89,78</t>
+          <t>69,05; 89,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>44,04; 62,78</t>
+          <t>32,15; 59,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,78; 47,49</t>
+          <t>22,03; 48,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,19; 83,16</t>
+          <t>67,13; 82,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>79,02; 89,0</t>
+          <t>76,15; 89,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,21; 64,02</t>
+          <t>44,83; 64,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>32,45; 46,2</t>
+          <t>24,64; 41,91</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>80,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>71,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>85,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>79,99%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>56,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>76,82%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>50,45%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,96; 85,72</t>
+          <t>66,12; 90,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>76,16; 92,25</t>
+          <t>80,62; 97,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,15; 80,56</t>
+          <t>54,54; 83,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,55; 66,1</t>
+          <t>27,04; 58,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>77,45; 91,67</t>
+          <t>72,94; 93,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,16; 95,67</t>
+          <t>87,81; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>70,9; 88,61</t>
+          <t>67,74; 89,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,56; 84,57</t>
+          <t>40,83; 70,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>76,24; 87,58</t>
+          <t>74,57; 90,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,11; 92,09</t>
+          <t>88,69; 97,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,9; 82,83</t>
+          <t>67,23; 85,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>56,8; 76,28</t>
+          <t>39,64; 61,54</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>74,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>85,51%</t>
+          <t>84,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>53,95%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>36,36%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,93; 78,6</t>
+          <t>68,82; 78,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,71; 86,66</t>
+          <t>79,86; 88,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,23; 58,51</t>
+          <t>44,62; 58,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,64; 44,25</t>
+          <t>27,05; 42,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>74,66; 80,64</t>
+          <t>71,71; 80,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,78; 88,16</t>
+          <t>80,74; 87,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,87; 61,61</t>
+          <t>50,72; 60,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,02; 47,68</t>
+          <t>34,51; 44,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>73,84; 78,72</t>
+          <t>71,9; 78,39</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>82,42; 86,67</t>
+          <t>81,74; 87,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>52,81; 58,99</t>
+          <t>49,96; 58,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>36,8; 44,64</t>
+          <t>32,62; 41,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>75053</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>93205</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54475</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28309</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>90173</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>113121</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72396</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52082</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>165226</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>206326</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>126871</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>80391</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60966; 83385</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>75871; 103508</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33886; 74289</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11985; 54030</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>74709; 104054</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>94377; 124469</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55097; 89216</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35610; 69944</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>144044; 181288</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>185271; 222843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>101504; 149235</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56829; 109285</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>90313</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>143908</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>57341</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>66694</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>112949</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>157013</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68500</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48286</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>203261</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>300920</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>125841</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>114979</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>65434; 112514</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>123164; 160272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31033; 89254</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27679; 111101</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>99366; 122412</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>143157; 162645</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49570; 82843</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32783; 66325</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>174771; 225141</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>278718; 317007</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>90499; 160078</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>74490; 162955</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>106431</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>131939</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63198</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>38083</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>148788</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>197448</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>107733</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>65313</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>255219</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>329387</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>170931</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>103396</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>89461; 119571</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>111258; 144569</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45856; 81241</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23718; 56638</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>128351; 167160</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>172763; 219712</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>86782; 127753</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48799; 85043</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>225762; 278258</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>300137; 354539</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>144068; 198451</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>80204; 133957</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>109566</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>145687</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>78433</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51288</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>139751</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>182432</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>92243</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64139</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>249318</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>328118</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>170676</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>115427</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>92119; 124138</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>127477; 159673</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>60925; 96235</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>36066; 67609</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>121090; 156337</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>163725; 195600</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>74678; 109735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49097; 81080</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>223477; 270435</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>302030; 348773</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>144935; 197308</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>92928; 138664</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>107674</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>134943</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>80881</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>40165</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>76457</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>94202</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42905</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31324</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>184131</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>229146</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>123787</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>71489</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>91974; 119749</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>120129; 146014</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>64783; 98097</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26034; 54344</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>63122; 88134</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>80233; 103622</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30162; 55738</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20420; 44569</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>162708; 200708</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>208356; 244875</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>101262; 144604</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>53188; 90465</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>72333</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>101337</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>62520</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>38889</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>91851</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>132147</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>85339</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62377</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>164183</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>233483</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>147859</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>101267</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>59667; 81679</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>88134; 106843</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>47635; 73019</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24376; 52751</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>78061; 100496</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>120830; 137602</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>71225; 94601</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>45166; 78507</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>147092; 177626</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>218991; 241840</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>129403; 163634</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>79569; 123528</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>591.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>561370</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>751018</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>396848</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>263428</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>659969</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>876362</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>469116</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>323521</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1221339</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1627381</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>865965</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>586949</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>519773; 595751</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>711768; 786868</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>340916; 448494</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>213451; 332852</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>622448; 694822</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>835892; 910558</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>426544; 512883</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>284737; 366625</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1167152; 1272600</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1574814; 1676664</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>801957; 932690</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>526518; 668301</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>